--- a/code/istart_covariates_1aug22.xlsx
+++ b/code/istart_covariates_1aug22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/Documents_Air/GitHub/istart-socdoors/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{917C4AB5-B002-CB49-8C56-35FDC14398D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BCD11-81A1-CE43-AA51-9232A01D3A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,11 +340,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="topRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1309,7 +1309,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3143</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>3166</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>3167</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>3170</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>3173</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>3175</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>3176</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>3189</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>3190</v>
       </c>
@@ -1579,18 +1579,18 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="B42" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D42" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -1609,21 +1609,21 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>3200</v>
+        <v>3206</v>
       </c>
       <c r="B43" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>8.1818181820000007</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1639,21 +1639,21 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>3206</v>
+        <v>3212</v>
       </c>
       <c r="B44" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" s="5">
         <v>36</v>
       </c>
       <c r="D44" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5">
-        <v>8.1818181820000007</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1669,18 +1669,18 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>3212</v>
+        <v>3220</v>
       </c>
       <c r="B45" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45" s="5">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D45" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -1699,22 +1699,12 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>3220</v>
-      </c>
-      <c r="B46" s="5">
-        <v>13</v>
-      </c>
-      <c r="C46" s="5">
-        <v>39</v>
-      </c>
-      <c r="D46" s="5">
-        <v>5</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1729,7 +1719,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1739,17 +1729,17 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1768,6 +1758,14 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -1868,10 +1866,10 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
@@ -28033,41 +28031,13 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A987" s="3"/>
-      <c r="B987" s="3"/>
-      <c r="C987" s="3"/>
-      <c r="D987" s="3"/>
-      <c r="E987" s="3"/>
-      <c r="F987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
-      <c r="I987" s="3"/>
-      <c r="J987" s="3"/>
-      <c r="K987" s="3"/>
-      <c r="L987" s="3"/>
-      <c r="M987" s="3"/>
-      <c r="N987" s="3"/>
-      <c r="O987" s="3"/>
-      <c r="P987" s="3"/>
-      <c r="Q987" s="3"/>
-      <c r="R987" s="3"/>
-      <c r="S987" s="3"/>
-      <c r="T987" s="3"/>
-      <c r="U987" s="3"/>
-      <c r="V987" s="3"/>
-      <c r="W987" s="3"/>
-      <c r="X987" s="3"/>
-      <c r="Y987" s="3"/>
-      <c r="Z987" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="Y2:Z46">
+  <conditionalFormatting sqref="Y2:Z45">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:N48 B68:B988 S37:AE48 Q37:R52 Q1:AE36">
+  <conditionalFormatting sqref="K47:N47 B67:B987 Q1:AE36 S37:AE47 Q37:R51">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>
